--- a/Code/Results/Cases/Case_0_220/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_220/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1967502173375379</v>
+        <v>0.05070303331912385</v>
       </c>
       <c r="D2">
-        <v>0.5829967014768158</v>
+        <v>0.2332309276353044</v>
       </c>
       <c r="E2">
-        <v>0.01421206701080946</v>
+        <v>0.04604448509153691</v>
       </c>
       <c r="F2">
-        <v>16.07645254684724</v>
+        <v>14.91324311680114</v>
       </c>
       <c r="G2">
-        <v>0.0006807561506152586</v>
+        <v>0.002918073986829643</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.23455945302899</v>
+        <v>11.19940568461692</v>
       </c>
       <c r="J2">
-        <v>0.2656263003751747</v>
+        <v>0.4134903892799997</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07650643299078652</v>
+        <v>0.2071373558204996</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1594933935736549</v>
+        <v>0.04543810182379104</v>
       </c>
       <c r="D3">
-        <v>0.4760776125691564</v>
+        <v>0.2199300229884784</v>
       </c>
       <c r="E3">
-        <v>0.01425797257717676</v>
+        <v>0.04620450570436918</v>
       </c>
       <c r="F3">
-        <v>13.59712010286762</v>
+        <v>14.71638319715089</v>
       </c>
       <c r="G3">
-        <v>0.0007256707399827219</v>
+        <v>0.00293686367383339</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.33876312437297</v>
+        <v>11.04696120098765</v>
       </c>
       <c r="J3">
-        <v>0.2339730024194893</v>
+        <v>0.4132330119168799</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07275109295511228</v>
+        <v>0.2084080281731815</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1394234688708593</v>
+        <v>0.04225366310134859</v>
       </c>
       <c r="D4">
-        <v>0.4186755896413388</v>
+        <v>0.2119966071513772</v>
       </c>
       <c r="E4">
-        <v>0.01430991394931391</v>
+        <v>0.04630899095280894</v>
       </c>
       <c r="F4">
-        <v>12.27520702672393</v>
+        <v>14.60697997074305</v>
       </c>
       <c r="G4">
-        <v>0.000751638294262875</v>
+        <v>0.002948941771217428</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.32785506050601</v>
+        <v>10.96202227129328</v>
       </c>
       <c r="J4">
-        <v>0.217398934918414</v>
+        <v>0.4133321067958491</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07094242664819816</v>
+        <v>0.2092837934837455</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1317306016125315</v>
+        <v>0.04096734721755979</v>
       </c>
       <c r="D5">
-        <v>0.3967204208674104</v>
+        <v>0.2088201796352394</v>
       </c>
       <c r="E5">
-        <v>0.01433546389130713</v>
+        <v>0.04635313975012378</v>
       </c>
       <c r="F5">
-        <v>11.77202630759075</v>
+        <v>14.56523231834899</v>
       </c>
       <c r="G5">
-        <v>0.0007619856366333074</v>
+        <v>0.002954000779420692</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.943021621512173</v>
+        <v>10.92954969324299</v>
       </c>
       <c r="J5">
-        <v>0.2111593453947975</v>
+        <v>0.4134365316262461</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07029914555798911</v>
+        <v>0.2096646463385952</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1304779011945385</v>
+        <v>0.04075442023054165</v>
       </c>
       <c r="D6">
-        <v>0.3931480684594533</v>
+        <v>0.2082960865209884</v>
       </c>
       <c r="E6">
-        <v>0.01433993945304168</v>
+        <v>0.0463605655552386</v>
       </c>
       <c r="F6">
-        <v>11.69030205998291</v>
+        <v>14.55846998389421</v>
       </c>
       <c r="G6">
-        <v>0.000763693249804076</v>
+        <v>0.002954849132775558</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.880516525014201</v>
+        <v>10.92428587027433</v>
       </c>
       <c r="J6">
-        <v>0.2101499848030386</v>
+        <v>0.4134577218993272</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07019732598775619</v>
+        <v>0.2097293328201211</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1393179726253635</v>
+        <v>0.04223627035560185</v>
       </c>
       <c r="D7">
-        <v>0.4183743142728531</v>
+        <v>0.2119535427892458</v>
       </c>
       <c r="E7">
-        <v>0.01431024228639766</v>
+        <v>0.04630957999683938</v>
       </c>
       <c r="F7">
-        <v>12.26829209907493</v>
+        <v>14.60640553169867</v>
       </c>
       <c r="G7">
-        <v>0.0007517786213617106</v>
+        <v>0.002949009442164172</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.322566664752884</v>
+        <v>10.96157571557259</v>
       </c>
       <c r="J7">
-        <v>0.2173129080367602</v>
+        <v>0.4133332565880963</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07093340291561034</v>
+        <v>0.2092888328141953</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1831498175099284</v>
+        <v>0.04887720126285444</v>
       </c>
       <c r="D8">
-        <v>0.5439215273540867</v>
+        <v>0.2285949924485067</v>
       </c>
       <c r="E8">
-        <v>0.01422167140163277</v>
+        <v>0.04609836862103078</v>
       </c>
       <c r="F8">
-        <v>15.16838412758995</v>
+        <v>14.84295510381554</v>
       </c>
       <c r="G8">
-        <v>0.0006967095728627346</v>
+        <v>0.002924440967947825</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.54023706180595</v>
+        <v>11.14502178447378</v>
       </c>
       <c r="J8">
-        <v>0.2539586603299853</v>
+        <v>0.4133479004541414</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.07508414115926243</v>
+        <v>0.207555611077936</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3167161881998339</v>
+        <v>0.06231916247040203</v>
       </c>
       <c r="D9">
-        <v>0.9288042338225466</v>
+        <v>0.263184562746801</v>
       </c>
       <c r="E9">
-        <v>0.01444986585396402</v>
+        <v>0.04573349430180862</v>
       </c>
       <c r="F9">
-        <v>24.13816242301982</v>
+        <v>15.40017927948429</v>
       </c>
       <c r="G9">
-        <v>0.0005565675616491224</v>
+        <v>0.002880509321573744</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.39882825348559</v>
+        <v>11.57528781273408</v>
       </c>
       <c r="J9">
-        <v>0.3718193369972909</v>
+        <v>0.4154463219016264</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.09067376225578272</v>
+        <v>0.2049180654706717</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3167161881998339</v>
+        <v>0.07250352962647355</v>
       </c>
       <c r="D10">
-        <v>0.9288042338225466</v>
+        <v>0.2899419851922005</v>
       </c>
       <c r="E10">
-        <v>0.01444986585396402</v>
+        <v>0.04549529974900057</v>
       </c>
       <c r="F10">
-        <v>24.13816242301982</v>
+        <v>15.86993682970211</v>
       </c>
       <c r="G10">
-        <v>0.0005565675616491224</v>
+        <v>0.002850755126877473</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.39882825348559</v>
+        <v>11.93704484257205</v>
       </c>
       <c r="J10">
-        <v>0.3718193369972909</v>
+        <v>0.4182935905190561</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.09067376225578272</v>
+        <v>0.2034490359932306</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3167161881998339</v>
+        <v>0.07721590248584675</v>
       </c>
       <c r="D11">
-        <v>0.9288042338225466</v>
+        <v>0.3024417553290277</v>
       </c>
       <c r="E11">
-        <v>0.01444986585396402</v>
+        <v>0.04539339087049132</v>
       </c>
       <c r="F11">
-        <v>24.13816242301982</v>
+        <v>16.09755312645615</v>
       </c>
       <c r="G11">
-        <v>0.0005565675616491224</v>
+        <v>0.002837751999361088</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.39882825348559</v>
+        <v>12.11214286542548</v>
       </c>
       <c r="J11">
-        <v>0.3718193369972909</v>
+        <v>0.4198826588740872</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09067376225578272</v>
+        <v>0.2028836782580399</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3167161881998339</v>
+        <v>0.07901282628145623</v>
       </c>
       <c r="D12">
-        <v>0.9288042338225466</v>
+        <v>0.3072252256631884</v>
       </c>
       <c r="E12">
-        <v>0.01444986585396402</v>
+        <v>0.04535572525306319</v>
       </c>
       <c r="F12">
-        <v>24.13816242301982</v>
+        <v>16.18581648607648</v>
       </c>
       <c r="G12">
-        <v>0.0005565675616491224</v>
+        <v>0.002832903357728166</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.39882825348559</v>
+        <v>12.18001544486094</v>
       </c>
       <c r="J12">
-        <v>0.3718193369972909</v>
+        <v>0.4205275429966377</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.09067376225578272</v>
+        <v>0.2026844950553865</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3167161881998339</v>
+        <v>0.07862525599406922</v>
       </c>
       <c r="D13">
-        <v>0.9288042338225466</v>
+        <v>0.3061927437985332</v>
       </c>
       <c r="E13">
-        <v>0.01444986585396402</v>
+        <v>0.04536379610536745</v>
       </c>
       <c r="F13">
-        <v>24.13816242301982</v>
+        <v>16.16671420453918</v>
       </c>
       <c r="G13">
-        <v>0.0005565675616491224</v>
+        <v>0.002833944267349885</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.39882825348559</v>
+        <v>12.16532732895189</v>
       </c>
       <c r="J13">
-        <v>0.3718193369972909</v>
+        <v>0.4203867224229043</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.09067376225578272</v>
+        <v>0.2027267280018847</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3167161881998339</v>
+        <v>0.07736348091361833</v>
       </c>
       <c r="D14">
-        <v>0.9288042338225466</v>
+        <v>0.3028342731927012</v>
       </c>
       <c r="E14">
-        <v>0.01444986585396402</v>
+        <v>0.04539027356872749</v>
       </c>
       <c r="F14">
-        <v>24.13816242301982</v>
+        <v>16.10477271695601</v>
       </c>
       <c r="G14">
-        <v>0.0005565675616491224</v>
+        <v>0.002837351595065305</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.39882825348559</v>
+        <v>12.11769507480551</v>
       </c>
       <c r="J14">
-        <v>0.3718193369972909</v>
+        <v>0.4199348440661481</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.09067376225578272</v>
+        <v>0.2028669919647896</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3167161881998339</v>
+        <v>0.07659225993901941</v>
       </c>
       <c r="D15">
-        <v>0.9288042338225466</v>
+        <v>0.3007837249942327</v>
       </c>
       <c r="E15">
-        <v>0.01444986585396402</v>
+        <v>0.04540661219376085</v>
       </c>
       <c r="F15">
-        <v>24.13816242301982</v>
+        <v>16.06710342733237</v>
       </c>
       <c r="G15">
-        <v>0.0005565675616491224</v>
+        <v>0.00283944846124351</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.39882825348559</v>
+        <v>12.08872457605668</v>
       </c>
       <c r="J15">
-        <v>0.3718193369972909</v>
+        <v>0.4196637005738211</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.09067376225578272</v>
+        <v>0.2029548521472933</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3167161881998339</v>
+        <v>0.0721972502902446</v>
       </c>
       <c r="D16">
-        <v>0.9288042338225466</v>
+        <v>0.2891319392111598</v>
       </c>
       <c r="E16">
-        <v>0.01444986585396402</v>
+        <v>0.04550208928828159</v>
       </c>
       <c r="F16">
-        <v>24.13816242301982</v>
+        <v>15.85534744512705</v>
       </c>
       <c r="G16">
-        <v>0.0005565675616491224</v>
+        <v>0.002851615522191988</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.39882825348559</v>
+        <v>11.92581811945212</v>
       </c>
       <c r="J16">
-        <v>0.3718193369972909</v>
+        <v>0.4181957283883264</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.09067376225578272</v>
+        <v>0.2034880632435829</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3167161881998339</v>
+        <v>0.06952211806694208</v>
       </c>
       <c r="D17">
-        <v>0.9288042338225466</v>
+        <v>0.2820699329582794</v>
       </c>
       <c r="E17">
-        <v>0.01444986585396402</v>
+        <v>0.04556231113997677</v>
       </c>
       <c r="F17">
-        <v>24.13816242301982</v>
+        <v>15.72905494878472</v>
       </c>
       <c r="G17">
-        <v>0.0005565675616491224</v>
+        <v>0.002859215109056289</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.39882825348559</v>
+        <v>11.82861426732711</v>
       </c>
       <c r="J17">
-        <v>0.3718193369972909</v>
+        <v>0.4173710468894569</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.09067376225578272</v>
+        <v>0.2038416025146788</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3167161881998339</v>
+        <v>0.0679908670333873</v>
       </c>
       <c r="D18">
-        <v>0.9288042338225466</v>
+        <v>0.2780387114119094</v>
       </c>
       <c r="E18">
-        <v>0.01444986585396402</v>
+        <v>0.0455975560892723</v>
       </c>
       <c r="F18">
-        <v>24.13816242301982</v>
+        <v>15.65772089075153</v>
       </c>
       <c r="G18">
-        <v>0.0005565675616491224</v>
+        <v>0.002863636355858848</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.39882825348559</v>
+        <v>11.77369331330897</v>
       </c>
       <c r="J18">
-        <v>0.3718193369972909</v>
+        <v>0.4169243127738582</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.09067376225578272</v>
+        <v>0.204054628540888</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3167161881998339</v>
+        <v>0.06747365471360922</v>
       </c>
       <c r="D19">
-        <v>0.9288042338225466</v>
+        <v>0.2766789867769717</v>
       </c>
       <c r="E19">
-        <v>0.01444986585396402</v>
+        <v>0.04560959372903195</v>
       </c>
       <c r="F19">
-        <v>24.13816242301982</v>
+        <v>15.63379069995233</v>
       </c>
       <c r="G19">
-        <v>0.0005565675616491224</v>
+        <v>0.002865141965306444</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.39882825348559</v>
+        <v>11.75526618979319</v>
       </c>
       <c r="J19">
-        <v>0.3718193369972909</v>
+        <v>0.4167777705747255</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.09067376225578272</v>
+        <v>0.2041284148469487</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3167161881998339</v>
+        <v>0.06980611584101837</v>
       </c>
       <c r="D20">
-        <v>0.9288042338225466</v>
+        <v>0.2828185016634279</v>
       </c>
       <c r="E20">
-        <v>0.01444986585396402</v>
+        <v>0.04555583762098481</v>
       </c>
       <c r="F20">
-        <v>24.13816242301982</v>
+        <v>15.74236334751271</v>
       </c>
       <c r="G20">
-        <v>0.0005565675616491224</v>
+        <v>0.002858400936718741</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.39882825348559</v>
+        <v>11.83885914654144</v>
       </c>
       <c r="J20">
-        <v>0.3718193369972909</v>
+        <v>0.4174559728007523</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.09067376225578272</v>
+        <v>0.2038029651063695</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3167161881998339</v>
+        <v>0.07773374851944936</v>
       </c>
       <c r="D21">
-        <v>0.9288042338225466</v>
+        <v>0.3038193539927931</v>
       </c>
       <c r="E21">
-        <v>0.01444986585396402</v>
+        <v>0.0453824714050266</v>
       </c>
       <c r="F21">
-        <v>24.13816242301982</v>
+        <v>16.12290969293542</v>
       </c>
       <c r="G21">
-        <v>0.0005565675616491224</v>
+        <v>0.002836348744664097</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.39882825348559</v>
+        <v>12.13164287197355</v>
       </c>
       <c r="J21">
-        <v>0.3718193369972909</v>
+        <v>0.4200663936178302</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.09067376225578272</v>
+        <v>0.2028253876129824</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3167161881998339</v>
+        <v>0.08298799772205712</v>
       </c>
       <c r="D22">
-        <v>0.9288042338225466</v>
+        <v>0.3178380017773748</v>
       </c>
       <c r="E22">
-        <v>0.01444986585396402</v>
+        <v>0.04527455774219735</v>
       </c>
       <c r="F22">
-        <v>24.13816242301982</v>
+        <v>16.383718559496</v>
       </c>
       <c r="G22">
-        <v>0.0005565675616491224</v>
+        <v>0.00282237505510566</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.39882825348559</v>
+        <v>12.3321524192009</v>
       </c>
       <c r="J22">
-        <v>0.3718193369972909</v>
+        <v>0.4220243461843012</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.09067376225578272</v>
+        <v>0.2022734206633103</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3167161881998339</v>
+        <v>0.08017666703742066</v>
       </c>
       <c r="D23">
-        <v>0.9288042338225466</v>
+        <v>0.3103281254270769</v>
       </c>
       <c r="E23">
-        <v>0.01444986585396402</v>
+        <v>0.04533166061554095</v>
       </c>
       <c r="F23">
-        <v>24.13816242301982</v>
+        <v>16.24338935905905</v>
       </c>
       <c r="G23">
-        <v>0.0005565675616491224</v>
+        <v>0.002829793331325822</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.39882825348559</v>
+        <v>12.22428075172303</v>
       </c>
       <c r="J23">
-        <v>0.3718193369972909</v>
+        <v>0.4209559959259366</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.09067376225578272</v>
+        <v>0.202560023546269</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3167161881998339</v>
+        <v>0.06967769959845782</v>
       </c>
       <c r="D24">
-        <v>0.9288042338225466</v>
+        <v>0.2824799842057075</v>
       </c>
       <c r="E24">
-        <v>0.01444986585396402</v>
+        <v>0.04555876235946599</v>
       </c>
       <c r="F24">
-        <v>24.13816242301982</v>
+        <v>15.73634265988682</v>
       </c>
       <c r="G24">
-        <v>0.0005565675616491224</v>
+        <v>0.002858768861461089</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.39882825348559</v>
+        <v>11.83422444154183</v>
       </c>
       <c r="J24">
-        <v>0.3718193369972909</v>
+        <v>0.4174174925602756</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.09067376225578272</v>
+        <v>0.2038204026504573</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3167161881998339</v>
+        <v>0.05863254563045928</v>
       </c>
       <c r="D25">
-        <v>0.9288042338225466</v>
+        <v>0.2536024829852295</v>
       </c>
       <c r="E25">
-        <v>0.01444986585396402</v>
+        <v>0.04582694284855382</v>
       </c>
       <c r="F25">
-        <v>24.13816242301982</v>
+        <v>15.23909464849731</v>
       </c>
       <c r="G25">
-        <v>0.0005565675616491224</v>
+        <v>0.002891946121025502</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.39882825348559</v>
+        <v>11.45107342679364</v>
       </c>
       <c r="J25">
-        <v>0.3718193369972909</v>
+        <v>0.41465268489209</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.09067376225578272</v>
+        <v>0.2055496314700775</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_220/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_220/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05070303331912385</v>
+        <v>0.1967502173371543</v>
       </c>
       <c r="D2">
-        <v>0.2332309276353044</v>
+        <v>0.5829967014765884</v>
       </c>
       <c r="E2">
-        <v>0.04604448509153691</v>
+        <v>0.01421206701079192</v>
       </c>
       <c r="F2">
-        <v>14.91324311680114</v>
+        <v>16.07645254684718</v>
       </c>
       <c r="G2">
-        <v>0.002918073986829643</v>
+        <v>0.0006807561506835715</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.19940568461692</v>
+        <v>12.23455945302888</v>
       </c>
       <c r="J2">
-        <v>0.4134903892799997</v>
+        <v>0.265626300375132</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2071373558204996</v>
+        <v>0.07650643299074744</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04543810182379104</v>
+        <v>0.1594933935741381</v>
       </c>
       <c r="D3">
-        <v>0.2199300229884784</v>
+        <v>0.4760776125690995</v>
       </c>
       <c r="E3">
-        <v>0.04620450570436918</v>
+        <v>0.01425797257714856</v>
       </c>
       <c r="F3">
-        <v>14.71638319715089</v>
+        <v>13.59712010286773</v>
       </c>
       <c r="G3">
-        <v>0.00293686367383339</v>
+        <v>0.0007256707399699003</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.04696120098765</v>
+        <v>10.33876312437309</v>
       </c>
       <c r="J3">
-        <v>0.4132330119168799</v>
+        <v>0.2339730024194751</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2084080281731815</v>
+        <v>0.07275109295521887</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04225366310134859</v>
+        <v>0.1394234688708451</v>
       </c>
       <c r="D4">
-        <v>0.2119966071513772</v>
+        <v>0.418675589641623</v>
       </c>
       <c r="E4">
-        <v>0.04630899095280894</v>
+        <v>0.01430991394938452</v>
       </c>
       <c r="F4">
-        <v>14.60697997074305</v>
+        <v>12.27520702672393</v>
       </c>
       <c r="G4">
-        <v>0.002948941771217428</v>
+        <v>0.0007516382942657372</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.96202227129328</v>
+        <v>9.327855060505982</v>
       </c>
       <c r="J4">
-        <v>0.4133321067958491</v>
+        <v>0.2173989349183074</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2092837934837455</v>
+        <v>0.07094242664822303</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04096734721755979</v>
+        <v>0.1317306016125173</v>
       </c>
       <c r="D5">
-        <v>0.2088201796352394</v>
+        <v>0.3967204208676662</v>
       </c>
       <c r="E5">
-        <v>0.04635313975012378</v>
+        <v>0.01433546389141771</v>
       </c>
       <c r="F5">
-        <v>14.56523231834899</v>
+        <v>11.77202630759081</v>
       </c>
       <c r="G5">
-        <v>0.002954000779420692</v>
+        <v>0.0007619856365241579</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.92954969324299</v>
+        <v>8.943021621512145</v>
       </c>
       <c r="J5">
-        <v>0.4134365316262461</v>
+        <v>0.2111593453949325</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2096646463385952</v>
+        <v>0.07029914555802463</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04075442023054165</v>
+        <v>0.1304779011955048</v>
       </c>
       <c r="D6">
-        <v>0.2082960865209884</v>
+        <v>0.393148068459908</v>
       </c>
       <c r="E6">
-        <v>0.0463605655552386</v>
+        <v>0.01433993945307788</v>
       </c>
       <c r="F6">
-        <v>14.55846998389421</v>
+        <v>11.69030205998297</v>
       </c>
       <c r="G6">
-        <v>0.002954849132775558</v>
+        <v>0.00076369324980976</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.92428587027433</v>
+        <v>8.880516525014201</v>
       </c>
       <c r="J6">
-        <v>0.4134577218993272</v>
+        <v>0.2101499848031168</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2097293328201211</v>
+        <v>0.07019732598795869</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04223627035560185</v>
+        <v>0.139317972625264</v>
       </c>
       <c r="D7">
-        <v>0.2119535427892458</v>
+        <v>0.4183743142727963</v>
       </c>
       <c r="E7">
-        <v>0.04630957999683938</v>
+        <v>0.01431024228639544</v>
       </c>
       <c r="F7">
-        <v>14.60640553169867</v>
+        <v>12.26829209907515</v>
       </c>
       <c r="G7">
-        <v>0.002949009442164172</v>
+        <v>0.0007517786215981881</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.96157571557259</v>
+        <v>9.322566664752969</v>
       </c>
       <c r="J7">
-        <v>0.4133332565880963</v>
+        <v>0.217312908036817</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2092888328141953</v>
+        <v>0.07093340291545047</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04887720126285444</v>
+        <v>0.1831498175099711</v>
       </c>
       <c r="D8">
-        <v>0.2285949924485067</v>
+        <v>0.5439215273542573</v>
       </c>
       <c r="E8">
-        <v>0.04609836862103078</v>
+        <v>0.0142216714017338</v>
       </c>
       <c r="F8">
-        <v>14.84295510381554</v>
+        <v>15.16838412758989</v>
       </c>
       <c r="G8">
-        <v>0.002924440967947825</v>
+        <v>0.0006967095732152919</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.14502178447378</v>
+        <v>11.54023706180587</v>
       </c>
       <c r="J8">
-        <v>0.4133479004541414</v>
+        <v>0.2539586603300563</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.207555611077936</v>
+        <v>0.07508414115940099</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06231916247040203</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D9">
-        <v>0.263184562746801</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E9">
-        <v>0.04573349430180862</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F9">
-        <v>15.40017927948429</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G9">
-        <v>0.002880509321573744</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.57528781273408</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J9">
-        <v>0.4154463219016264</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2049180654706717</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07250352962647355</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D10">
-        <v>0.2899419851922005</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E10">
-        <v>0.04549529974900057</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F10">
-        <v>15.86993682970211</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G10">
-        <v>0.002850755126877473</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.93704484257205</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J10">
-        <v>0.4182935905190561</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2034490359932306</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07721590248584675</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D11">
-        <v>0.3024417553290277</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E11">
-        <v>0.04539339087049132</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F11">
-        <v>16.09755312645615</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G11">
-        <v>0.002837751999361088</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.11214286542548</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J11">
-        <v>0.4198826588740872</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2028836782580399</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07901282628145623</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D12">
-        <v>0.3072252256631884</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E12">
-        <v>0.04535572525306319</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F12">
-        <v>16.18581648607648</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G12">
-        <v>0.002832903357728166</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.18001544486094</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J12">
-        <v>0.4205275429966377</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2026844950553865</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07862525599406922</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D13">
-        <v>0.3061927437985332</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E13">
-        <v>0.04536379610536745</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F13">
-        <v>16.16671420453918</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G13">
-        <v>0.002833944267349885</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.16532732895189</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J13">
-        <v>0.4203867224229043</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2027267280018847</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07736348091361833</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D14">
-        <v>0.3028342731927012</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E14">
-        <v>0.04539027356872749</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F14">
-        <v>16.10477271695601</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G14">
-        <v>0.002837351595065305</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.11769507480551</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J14">
-        <v>0.4199348440661481</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2028669919647896</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07659225993901941</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D15">
-        <v>0.3007837249942327</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E15">
-        <v>0.04540661219376085</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F15">
-        <v>16.06710342733237</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G15">
-        <v>0.00283944846124351</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.08872457605668</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J15">
-        <v>0.4196637005738211</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2029548521472933</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0721972502902446</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D16">
-        <v>0.2891319392111598</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E16">
-        <v>0.04550208928828159</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F16">
-        <v>15.85534744512705</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G16">
-        <v>0.002851615522191988</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.92581811945212</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J16">
-        <v>0.4181957283883264</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2034880632435829</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06952211806694208</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D17">
-        <v>0.2820699329582794</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E17">
-        <v>0.04556231113997677</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F17">
-        <v>15.72905494878472</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G17">
-        <v>0.002859215109056289</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.82861426732711</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J17">
-        <v>0.4173710468894569</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2038416025146788</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0679908670333873</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D18">
-        <v>0.2780387114119094</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E18">
-        <v>0.0455975560892723</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F18">
-        <v>15.65772089075153</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G18">
-        <v>0.002863636355858848</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.77369331330897</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J18">
-        <v>0.4169243127738582</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.204054628540888</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06747365471360922</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D19">
-        <v>0.2766789867769717</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E19">
-        <v>0.04560959372903195</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F19">
-        <v>15.63379069995233</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G19">
-        <v>0.002865141965306444</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.75526618979319</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J19">
-        <v>0.4167777705747255</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2041284148469487</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06980611584101837</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D20">
-        <v>0.2828185016634279</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E20">
-        <v>0.04555583762098481</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F20">
-        <v>15.74236334751271</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G20">
-        <v>0.002858400936718741</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.83885914654144</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J20">
-        <v>0.4174559728007523</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2038029651063695</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07773374851944936</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D21">
-        <v>0.3038193539927931</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E21">
-        <v>0.0453824714050266</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F21">
-        <v>16.12290969293542</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G21">
-        <v>0.002836348744664097</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.13164287197355</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J21">
-        <v>0.4200663936178302</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2028253876129824</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08298799772205712</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D22">
-        <v>0.3178380017773748</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E22">
-        <v>0.04527455774219735</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F22">
-        <v>16.383718559496</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G22">
-        <v>0.00282237505510566</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.3321524192009</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J22">
-        <v>0.4220243461843012</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2022734206633103</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08017666703742066</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D23">
-        <v>0.3103281254270769</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E23">
-        <v>0.04533166061554095</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F23">
-        <v>16.24338935905905</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G23">
-        <v>0.002829793331325822</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.22428075172303</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J23">
-        <v>0.4209559959259366</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.202560023546269</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06967769959845782</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D24">
-        <v>0.2824799842057075</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E24">
-        <v>0.04555876235946599</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F24">
-        <v>15.73634265988682</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G24">
-        <v>0.002858768861461089</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.83422444154183</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J24">
-        <v>0.4174174925602756</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2038204026504573</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05863254563045928</v>
+        <v>0.3167161882005445</v>
       </c>
       <c r="D25">
-        <v>0.2536024829852295</v>
+        <v>0.928804233822774</v>
       </c>
       <c r="E25">
-        <v>0.04582694284855382</v>
+        <v>0.01444986585392938</v>
       </c>
       <c r="F25">
-        <v>15.23909464849731</v>
+        <v>24.13816242302028</v>
       </c>
       <c r="G25">
-        <v>0.002891946121025502</v>
+        <v>0.0005565675617241981</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.45107342679364</v>
+        <v>18.39882825348593</v>
       </c>
       <c r="J25">
-        <v>0.41465268489209</v>
+        <v>0.3718193369972482</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2055496314700775</v>
+        <v>0.09067376225548429</v>
       </c>
       <c r="M25">
         <v>0</v>
